--- a/raw-data/All Treatments/combined_raw.xlsx
+++ b/raw-data/All Treatments/combined_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/All Treatments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069B28A2-9BCF-8548-8EBB-0FF415027DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D1BCE8-F8D7-694F-BD84-856E425EA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="-21060" windowWidth="34560" windowHeight="20440" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
+    <workbookView xWindow="1740" yWindow="-20960" windowWidth="34560" windowHeight="20440" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>field O2 east</t>
+  </si>
+  <si>
+    <t>seed_weight</t>
   </si>
 </sst>
 </file>
@@ -585,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FB9F-C7C0-8845-8916-2E1AAB9BD4F0}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,7 +608,7 @@
     <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,8 +648,11 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -686,8 +692,11 @@
       <c r="M2" s="6">
         <v>417.21</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>17.119999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -727,8 +736,11 @@
       <c r="M3" s="6">
         <v>565.54</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>17.475000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -768,8 +780,11 @@
       <c r="M4" s="6">
         <v>449.93</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>16.752499999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -809,8 +824,11 @@
       <c r="M5" s="6">
         <v>412.59</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>16.145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -850,8 +868,11 @@
       <c r="M6" s="6">
         <v>473.79</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>17.047499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -891,8 +912,11 @@
       <c r="M7" s="6">
         <v>484.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -932,8 +956,11 @@
       <c r="M8" s="6">
         <v>556.76</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>16.392500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -973,8 +1000,11 @@
       <c r="M9" s="6">
         <v>497.82</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>16.517500000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -1014,8 +1044,11 @@
       <c r="M10" s="6">
         <v>583.53</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>17.337499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -1055,8 +1088,11 @@
       <c r="M11" s="6">
         <v>485.35</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>16.794999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1096,8 +1132,11 @@
       <c r="M12" s="6">
         <v>478.85</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>17.8475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1137,8 +1176,11 @@
       <c r="M13" s="6">
         <v>481.27</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>16.892500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1178,8 +1220,11 @@
       <c r="M14" s="6">
         <v>495.61</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>17.692499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -1219,8 +1264,11 @@
       <c r="M15" s="6">
         <v>686.07</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>17.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -1260,8 +1308,11 @@
       <c r="M16" s="6">
         <v>556.48</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>16.297499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
@@ -1301,8 +1352,11 @@
       <c r="M17" s="6">
         <v>575.66999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>18.105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
@@ -1342,8 +1396,11 @@
       <c r="M18" s="6">
         <v>457.43</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>16.692499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
@@ -1383,8 +1440,11 @@
       <c r="M19" s="6">
         <v>549.80999999999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>16.734999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1424,8 +1484,11 @@
       <c r="M20" s="6">
         <v>487.11</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>17.310000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
@@ -1465,8 +1528,11 @@
       <c r="M21">
         <v>434.21</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -1506,8 +1572,11 @@
       <c r="M22" s="6">
         <v>612</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>19.122500000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -1547,8 +1616,11 @@
       <c r="M23" s="6">
         <v>790</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -1588,8 +1660,11 @@
       <c r="M24" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
@@ -1629,8 +1704,11 @@
       <c r="M25" s="6">
         <v>660</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>18.2425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -1670,8 +1748,11 @@
       <c r="M26" s="6">
         <v>624</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>17.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
@@ -1711,8 +1792,11 @@
       <c r="M27" s="6">
         <v>670</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>18.309999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
@@ -1752,8 +1836,11 @@
       <c r="M28" s="6">
         <v>638</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>18.704999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
@@ -1793,8 +1880,11 @@
       <c r="M29" s="6">
         <v>646</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>17.9375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
@@ -1834,8 +1924,11 @@
       <c r="M30" s="6">
         <v>662</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>18.942499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>28</v>
       </c>
@@ -1875,8 +1968,11 @@
       <c r="M31" s="6">
         <v>644</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>18.369999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +2012,11 @@
       <c r="M32" s="6">
         <v>588</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>17.094999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -1957,8 +2056,11 @@
       <c r="M33" s="6">
         <v>676</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>19.395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -1998,8 +2100,11 @@
       <c r="M34" s="6">
         <v>672</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>19.012499999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -2039,8 +2144,11 @@
       <c r="M35" s="6">
         <v>604</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>19.022500000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -2080,8 +2188,11 @@
       <c r="M36" s="6">
         <v>586</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>17.952500000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -2121,8 +2232,11 @@
       <c r="M37" s="6">
         <v>534</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>18.0975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>35</v>
       </c>
@@ -2162,8 +2276,11 @@
       <c r="M38" s="6">
         <v>548</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>18.079999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>36</v>
       </c>
@@ -2203,8 +2320,11 @@
       <c r="M39" s="6">
         <v>586</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>18.052500000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -2244,8 +2364,11 @@
       <c r="M40" s="6">
         <v>678</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>18.952500000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -2285,8 +2408,11 @@
       <c r="M41">
         <v>660</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>18.532499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="M42" s="6">
         <v>724</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>18.305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>16</v>
       </c>
@@ -2367,8 +2496,11 @@
       <c r="M43" s="6">
         <v>690</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>19.094999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>18</v>
       </c>
@@ -2408,8 +2540,11 @@
       <c r="M44" s="6">
         <v>638</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>17.587500000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>20</v>
       </c>
@@ -2449,8 +2584,11 @@
       <c r="M45" s="6">
         <v>662</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>17.649999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>22</v>
       </c>
@@ -2490,8 +2628,11 @@
       <c r="M46" s="6">
         <v>700</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>17.990000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>24</v>
       </c>
@@ -2531,8 +2672,11 @@
       <c r="M47" s="6">
         <v>626</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>18.3125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>25</v>
       </c>
@@ -2572,8 +2716,11 @@
       <c r="M48" s="6">
         <v>686</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>17.740000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2760,11 @@
       <c r="M49" s="6">
         <v>690</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>18.169999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>27</v>
       </c>
@@ -2654,8 +2804,11 @@
       <c r="M50" s="6">
         <v>662</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>19.087499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>28</v>
       </c>
@@ -2695,8 +2848,11 @@
       <c r="M51" s="6">
         <v>530</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -2736,8 +2892,11 @@
       <c r="M52" s="6">
         <v>642</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>18.6175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
@@ -2777,8 +2936,11 @@
       <c r="M53" s="6">
         <v>498</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>17.655000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>31</v>
       </c>
@@ -2818,8 +2980,11 @@
       <c r="M54" s="6">
         <v>688</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>17.8125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>32</v>
       </c>
@@ -2859,8 +3024,11 @@
       <c r="M55" s="6">
         <v>712</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>17.872499999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>33</v>
       </c>
@@ -2900,8 +3068,11 @@
       <c r="M56" s="6">
         <v>666</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>17.732499999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>34</v>
       </c>
@@ -2941,8 +3112,11 @@
       <c r="M57" s="6">
         <v>730</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3156,11 @@
       <c r="M58" s="6">
         <v>688</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>17.652499999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>36</v>
       </c>
@@ -3023,8 +3200,11 @@
       <c r="M59" s="6">
         <v>614</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>17.892500000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>37</v>
       </c>
@@ -3064,8 +3244,11 @@
       <c r="M60" s="6">
         <v>678</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>18.8125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>38</v>
       </c>
@@ -3104,6 +3287,9 @@
       </c>
       <c r="M61" s="6">
         <v>656</v>
+      </c>
+      <c r="N61">
+        <v>19.4925</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data/All Treatments/combined_raw.xlsx
+++ b/raw-data/All Treatments/combined_raw.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/All Treatments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D1BCE8-F8D7-694F-BD84-856E425EA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5E129-E0C6-874E-B277-55A72BE75E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-20960" windowWidth="34560" windowHeight="20440" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
+    <workbookView xWindow="18120" yWindow="-24840" windowWidth="34560" windowHeight="20440" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$63</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -156,9 +159,6 @@
   </si>
   <si>
     <t>field O2 west</t>
-  </si>
-  <si>
-    <t>Na</t>
   </si>
   <si>
     <t>field O2 east</t>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FB9F-C7C0-8845-8916-2E1AAB9BD4F0}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +649,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -772,7 +772,7 @@
         <v>6.89</v>
       </c>
       <c r="K4">
-        <v>3.92</v>
+        <v>7.84</v>
       </c>
       <c r="L4">
         <v>37.5</v>
@@ -860,7 +860,7 @@
         <v>22.024999999999999</v>
       </c>
       <c r="K6">
-        <v>22.520000000000003</v>
+        <v>22.52</v>
       </c>
       <c r="L6">
         <v>39</v>
@@ -1212,7 +1212,7 @@
         <v>14.469999999999999</v>
       </c>
       <c r="K14">
-        <v>20.92</v>
+        <v>28.41</v>
       </c>
       <c r="L14">
         <v>27.5</v>
@@ -1300,7 +1300,7 @@
         <v>0.73</v>
       </c>
       <c r="K16">
-        <v>2.3249999999999997</v>
+        <v>2.3250000000000002</v>
       </c>
       <c r="L16">
         <v>32.5</v>
@@ -1654,14 +1654,14 @@
       <c r="K24">
         <v>0.05</v>
       </c>
-      <c r="L24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" t="s">
-        <v>40</v>
+      <c r="L24">
+        <v>44</v>
+      </c>
+      <c r="M24" s="6">
+        <v>641</v>
+      </c>
+      <c r="N24">
+        <v>18.079999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -2224,7 +2224,7 @@
         <v>36.409999999999997</v>
       </c>
       <c r="K37">
-        <v>37.185000000000002</v>
+        <v>37.184999999999995</v>
       </c>
       <c r="L37">
         <v>39.5</v>
@@ -2312,7 +2312,7 @@
         <v>2.16</v>
       </c>
       <c r="K39">
-        <v>2.6849999999999996</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="L39">
         <v>38</v>
@@ -2417,7 +2417,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="6">
         <v>2024</v>
@@ -2461,7 +2461,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="6">
         <v>2024</v>
@@ -2505,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="6">
         <v>2024</v>
@@ -2549,7 +2549,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="6">
         <v>2024</v>
@@ -2593,7 +2593,7 @@
         <v>22</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="6">
         <v>2024</v>
@@ -2637,7 +2637,7 @@
         <v>24</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="6">
         <v>2024</v>
@@ -2681,7 +2681,7 @@
         <v>25</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="6">
         <v>2024</v>
@@ -2725,7 +2725,7 @@
         <v>26</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="6">
         <v>2024</v>
@@ -2752,7 +2752,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K49">
-        <v>0.30499999999999999</v>
+        <v>0.30500000000000005</v>
       </c>
       <c r="L49">
         <v>47</v>
@@ -2769,7 +2769,7 @@
         <v>27</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="6">
         <v>2024</v>
@@ -2813,7 +2813,7 @@
         <v>28</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="6">
         <v>2024</v>
@@ -2840,7 +2840,7 @@
         <v>17.740000000000002</v>
       </c>
       <c r="K51">
-        <v>18.864999999999998</v>
+        <v>18.865000000000002</v>
       </c>
       <c r="L51">
         <v>39.5</v>
@@ -2857,7 +2857,7 @@
         <v>29</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="6">
         <v>2024</v>
@@ -2901,7 +2901,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="6">
         <v>2024</v>
@@ -2945,7 +2945,7 @@
         <v>31</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C54" s="6">
         <v>2024</v>
@@ -2989,7 +2989,7 @@
         <v>32</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="6">
         <v>2024</v>
@@ -3033,7 +3033,7 @@
         <v>33</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="6">
         <v>2024</v>
@@ -3077,7 +3077,7 @@
         <v>34</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="6">
         <v>2024</v>
@@ -3121,7 +3121,7 @@
         <v>35</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="6">
         <v>2024</v>
@@ -3165,7 +3165,7 @@
         <v>36</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="6">
         <v>2024</v>
@@ -3209,7 +3209,7 @@
         <v>37</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" s="6">
         <v>2024</v>
@@ -3253,7 +3253,7 @@
         <v>38</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61" s="6">
         <v>2024</v>
@@ -3280,7 +3280,7 @@
         <v>3.6999999999999997</v>
       </c>
       <c r="K61">
-        <v>5.0349999999999993</v>
+        <v>5.0350000000000001</v>
       </c>
       <c r="L61">
         <v>45.5</v>

--- a/raw-data/All Treatments/combined_raw.xlsx
+++ b/raw-data/All Treatments/combined_raw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/All Treatments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5E129-E0C6-874E-B277-55A72BE75E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B8FBF5-F9FC-634A-B818-B6BD0969DFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="-24840" windowWidth="34560" windowHeight="20440" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>CU_B1_P101</t>
   </si>
   <si>
-    <t>field x</t>
-  </si>
-  <si>
     <t>TIM</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>seed_weight</t>
+  </si>
+  <si>
+    <t>field v</t>
   </si>
 </sst>
 </file>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FB9F-C7C0-8845-8916-2E1AAB9BD4F0}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +649,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -657,13 +657,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6">
         <v>2023</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -698,16 +698,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6">
         <v>2023</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -742,16 +742,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6">
         <v>2023</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -786,16 +786,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6">
         <v>2023</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -830,16 +830,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6">
         <v>2023</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -874,16 +874,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6">
         <v>2023</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
@@ -918,16 +918,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6">
         <v>2023</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
@@ -962,16 +962,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6">
         <v>2023</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
@@ -1006,16 +1006,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6">
         <v>2023</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -1050,16 +1050,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6">
         <v>2023</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6">
         <v>2023</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
@@ -1138,16 +1138,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6">
         <v>2023</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="6">
         <v>3</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6">
         <v>2023</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -1226,16 +1226,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6">
         <v>2023</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6">
         <v>3</v>
@@ -1270,16 +1270,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6">
         <v>2023</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="6">
         <v>3</v>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6">
         <v>2023</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="6">
         <v>4</v>
@@ -1358,16 +1358,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6">
         <v>2023</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="6">
         <v>4</v>
@@ -1402,16 +1402,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6">
         <v>2023</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="6">
         <v>4</v>
@@ -1446,16 +1446,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6">
         <v>2023</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
@@ -1490,16 +1490,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C21" s="6">
         <v>2023</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="6">
         <v>4</v>
@@ -1537,13 +1537,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6">
         <v>2024</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -1578,16 +1578,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -1622,16 +1622,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -1666,16 +1666,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -1710,16 +1710,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
@@ -1754,16 +1754,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6">
         <v>2024</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="6">
         <v>2</v>
@@ -1798,16 +1798,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="6">
         <v>2024</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="6">
         <v>2</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="6">
         <v>2024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
@@ -1886,16 +1886,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6">
         <v>2024</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
@@ -1930,16 +1930,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6">
         <v>2024</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
@@ -1974,16 +1974,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="6">
         <v>2024</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="6">
         <v>3</v>
@@ -2018,16 +2018,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="6">
         <v>2024</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="6">
         <v>3</v>
@@ -2062,16 +2062,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="6">
         <v>2024</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="6">
         <v>2024</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="6">
         <v>3</v>
@@ -2150,16 +2150,16 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="6">
         <v>2024</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="6">
         <v>3</v>
@@ -2194,16 +2194,16 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6">
         <v>2024</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="6">
         <v>4</v>
@@ -2238,16 +2238,16 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6">
         <v>2024</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="6">
         <v>4</v>
@@ -2282,16 +2282,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="6">
         <v>2024</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="6">
         <v>4</v>
@@ -2326,16 +2326,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="6">
         <v>2024</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" s="6">
         <v>4</v>
@@ -2370,16 +2370,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="C41" s="6">
         <v>2024</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="6">
         <v>4</v>
@@ -2417,13 +2417,13 @@
         <v>13</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="6">
         <v>2024</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
@@ -2458,16 +2458,16 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
@@ -2502,16 +2502,16 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -2546,16 +2546,16 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
@@ -2634,16 +2634,16 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="6">
         <v>2024</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" s="6">
         <v>2</v>
@@ -2678,16 +2678,16 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="6">
         <v>2024</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="6">
         <v>2</v>
@@ -2722,16 +2722,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="6">
         <v>2024</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="6">
         <v>2</v>
@@ -2766,16 +2766,16 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="6">
         <v>2024</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" s="6">
         <v>2</v>
@@ -2810,16 +2810,16 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="6">
         <v>2024</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="6">
         <v>2</v>
@@ -2854,16 +2854,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="6">
         <v>2024</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" s="6">
         <v>3</v>
@@ -2898,16 +2898,16 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="6">
         <v>2024</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53" s="6">
         <v>3</v>
@@ -2942,16 +2942,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="6">
         <v>2024</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E54" s="6">
         <v>3</v>
@@ -2986,16 +2986,16 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="6">
         <v>2024</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="6">
         <v>3</v>
@@ -3030,16 +3030,16 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="6">
         <v>2024</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" s="6">
         <v>3</v>
@@ -3074,16 +3074,16 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="6">
         <v>2024</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E57" s="6">
         <v>4</v>
@@ -3118,16 +3118,16 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="6">
         <v>2024</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" s="6">
         <v>4</v>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="6">
         <v>2024</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59" s="6">
         <v>4</v>
@@ -3206,16 +3206,16 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="6">
         <v>2024</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60" s="6">
         <v>4</v>
@@ -3250,16 +3250,16 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="6">
         <v>2024</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" s="6">
         <v>4</v>

--- a/raw-data/All Treatments/combined_raw.xlsx
+++ b/raw-data/All Treatments/combined_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/All Treatments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B8FBF5-F9FC-634A-B818-B6BD0969DFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197598C2-77EE-2A41-AD46-5F1DC245D49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="-24840" windowWidth="34560" windowHeight="20440" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
+    <workbookView xWindow="34300" yWindow="-26180" windowWidth="34560" windowHeight="20440" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>bean_biomass</t>
   </si>
   <si>
-    <t>intrarow_weed_biomass</t>
-  </si>
-  <si>
     <t>interrow_weed_biomass</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>field v</t>
+  </si>
+  <si>
+    <t>inrow_weed_biomass</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,36 +634,36 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6">
         <v>2023</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -698,16 +698,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6">
         <v>2023</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -742,16 +742,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6">
         <v>2023</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -786,16 +786,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6">
         <v>2023</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -830,16 +830,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6">
         <v>2023</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -874,16 +874,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6">
         <v>2023</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
@@ -918,16 +918,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6">
         <v>2023</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
@@ -962,16 +962,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6">
         <v>2023</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
@@ -1006,16 +1006,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6">
         <v>2023</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -1050,16 +1050,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6">
         <v>2023</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6">
         <v>2023</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
@@ -1138,16 +1138,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6">
         <v>2023</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="6">
         <v>3</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6">
         <v>2023</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -1226,16 +1226,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6">
         <v>2023</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="6">
         <v>3</v>
@@ -1270,16 +1270,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6">
         <v>2023</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="6">
         <v>3</v>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6">
         <v>2023</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="6">
         <v>4</v>
@@ -1358,16 +1358,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>2023</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="6">
         <v>4</v>
@@ -1402,16 +1402,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6">
         <v>2023</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="6">
         <v>4</v>
@@ -1446,16 +1446,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="6">
         <v>2023</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
@@ -1490,16 +1490,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6">
         <v>2023</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="6">
         <v>4</v>
@@ -1534,16 +1534,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -1578,16 +1578,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -1622,16 +1622,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -1666,16 +1666,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -1710,16 +1710,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
@@ -1754,16 +1754,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="6">
         <v>2024</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="6">
         <v>2</v>
@@ -1798,16 +1798,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6">
         <v>2024</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="6">
         <v>2</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6">
         <v>2024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
@@ -1886,16 +1886,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6">
         <v>2024</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
@@ -1930,16 +1930,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="6">
         <v>2024</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
@@ -1974,16 +1974,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="6">
         <v>2024</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="6">
         <v>3</v>
@@ -2018,16 +2018,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="6">
         <v>2024</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="6">
         <v>3</v>
@@ -2062,16 +2062,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6">
         <v>2024</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6">
         <v>2024</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="6">
         <v>3</v>
@@ -2150,16 +2150,16 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="6">
         <v>2024</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="6">
         <v>3</v>
@@ -2194,16 +2194,16 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6">
         <v>2024</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="6">
         <v>4</v>
@@ -2238,16 +2238,16 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="6">
         <v>2024</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="6">
         <v>4</v>
@@ -2282,16 +2282,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="6">
         <v>2024</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="6">
         <v>4</v>
@@ -2326,16 +2326,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="6">
         <v>2024</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="6">
         <v>4</v>
@@ -2370,16 +2370,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C41" s="6">
         <v>2024</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="6">
         <v>4</v>
@@ -2414,16 +2414,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
@@ -2458,16 +2458,16 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
@@ -2502,16 +2502,16 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -2546,16 +2546,16 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
@@ -2634,16 +2634,16 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="6">
         <v>2024</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" s="6">
         <v>2</v>
@@ -2678,16 +2678,16 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="6">
         <v>2024</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" s="6">
         <v>2</v>
@@ -2722,16 +2722,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="6">
         <v>2024</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="6">
         <v>2</v>
@@ -2766,16 +2766,16 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="6">
         <v>2024</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="6">
         <v>2</v>
@@ -2810,16 +2810,16 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="6">
         <v>2024</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="6">
         <v>2</v>
@@ -2854,16 +2854,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="6">
         <v>2024</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="6">
         <v>3</v>
@@ -2898,16 +2898,16 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="6">
         <v>2024</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" s="6">
         <v>3</v>
@@ -2942,16 +2942,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="6">
         <v>2024</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" s="6">
         <v>3</v>
@@ -2986,16 +2986,16 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="6">
         <v>2024</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55" s="6">
         <v>3</v>
@@ -3030,16 +3030,16 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="6">
         <v>2024</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="6">
         <v>3</v>
@@ -3074,16 +3074,16 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" s="6">
         <v>2024</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" s="6">
         <v>4</v>
@@ -3118,16 +3118,16 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="6">
         <v>2024</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" s="6">
         <v>4</v>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="6">
         <v>2024</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" s="6">
         <v>4</v>
@@ -3206,16 +3206,16 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" s="6">
         <v>2024</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60" s="6">
         <v>4</v>
@@ -3250,16 +3250,16 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" s="6">
         <v>2024</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61" s="6">
         <v>4</v>
